--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1492,10 +1504,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1539,28 +1551,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1585,28 +1597,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2361,10 +2373,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2408,28 +2420,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2454,28 +2466,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2824,10 +2836,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2871,28 +2883,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2917,28 +2929,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3229,10 +3241,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3276,28 +3288,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3322,28 +3334,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3605,10 +3617,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3652,28 +3664,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3698,28 +3710,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3923,10 +3935,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
